--- a/CoreRulebook/Data/Items/packs.xlsx
+++ b/CoreRulebook/Data/Items/packs.xlsx
@@ -79,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,12 +168,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="107.12"/>
   </cols>
   <sheetData>
@@ -195,7 +196,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,7 +207,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,7 +218,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,7 +229,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,7 +240,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,7 +251,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
